--- a/examples/analytical/SulfateRedcution/model_config.SulfateReduction.xlsx
+++ b/examples/analytical/SulfateRedcution/model_config.SulfateReduction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16044" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16044" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -957,17 +957,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.20703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.05078125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>

--- a/examples/analytical/SulfateRedcution/model_config.SulfateReduction.xlsx
+++ b/examples/analytical/SulfateRedcution/model_config.SulfateReduction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16046" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16044" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>g cm^-2 yr^-1</t>
   </si>
   <si>
-    <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -305,21 +302,9 @@
     <t>gridtran</t>
   </si>
   <si>
-    <t>return a non-uniform grid by transforming a uniform one, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
     <t>dimensionless</t>
   </si>
   <si>
-    <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>porosity at infinite sediment depth (normally where porosity stops changing). Needed to calculate burial velocities. If constant_porosity_profile = no, then phi_Inf should be consistent with the depth dependent porosity function</t>
-  </si>
-  <si>
-    <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
     <t>Concentration of POC at the TOP of sediment column</t>
   </si>
   <si>
@@ -351,6 +336,21 @@
   </si>
   <si>
     <t>formula</t>
+  </si>
+  <si>
+    <t>grid transformation function</t>
+  </si>
+  <si>
+    <t>porosity as a function of depth</t>
+  </si>
+  <si>
+    <t>porosity at burial depth</t>
+  </si>
+  <si>
+    <t>bioburbation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>bioirrigation coefficient as a function of depth</t>
   </si>
 </sst>
 </file>
@@ -756,18 +756,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>39</v>
@@ -787,10 +787,10 @@
         <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
@@ -810,15 +810,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -842,22 +842,22 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -880,16 +880,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
@@ -906,18 +906,18 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -925,16 +925,16 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
@@ -943,11 +943,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
     </row>
@@ -960,29 +960,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.921875" customWidth="1"/>
-    <col min="4" max="4" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.89453125" customWidth="1"/>
+    <col min="4" max="4" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.05078125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -994,103 +994,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="3"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="5"/>
     </row>
   </sheetData>
@@ -1107,22 +1107,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1134,24 +1134,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H1:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="181.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="3"/>
+    <col min="3" max="3" width="7.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.05078125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.3671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.20703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1173,6 +1173,7 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1180,7 +1181,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1202,6 +1203,7 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1209,7 +1211,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1231,6 +1233,7 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1238,7 +1241,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1260,6 +1263,7 @@
       <c r="G4" t="s">
         <v>44</v>
       </c>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1267,7 +1271,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1289,6 +1293,7 @@
       <c r="G5" t="s">
         <v>46</v>
       </c>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1296,7 +1301,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1318,6 +1323,7 @@
       <c r="G6" t="s">
         <v>47</v>
       </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -1325,7 +1331,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1347,6 +1353,7 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
+      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1354,7 +1361,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1365,20 +1372,20 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1389,20 +1396,20 @@
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0.8</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1413,17 +1420,18 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0.8</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1431,7 +1439,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1453,6 +1461,7 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -1460,7 +1469,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1477,11 +1486,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -1489,7 +1499,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1509,9 +1519,9 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13"/>
+        <v>102</v>
+      </c>
+      <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -1519,29 +1529,29 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14"/>
+        <v>87</v>
+      </c>
+      <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -1549,29 +1559,29 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15"/>
+        <v>88</v>
+      </c>
+      <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -1579,29 +1589,29 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="9">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16"/>
+        <v>89</v>
+      </c>
+      <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -1609,29 +1619,30 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9">
         <f>16.5096024688353/1000</f>
         <v>1.6509602468835302E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -1639,18 +1650,18 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="9">
         <v>5.0000000000000001E-3</v>
@@ -1659,8 +1670,9 @@
         <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -1682,14 +1694,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="9.23046875" style="18"/>
+    <col min="5" max="5" width="9.20703125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1704,18 +1716,18 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1725,15 +1737,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1743,15 +1755,15 @@
         <v>26.125613235830144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1761,15 +1773,15 @@
         <v>24.556988368240425</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1779,15 +1791,15 @@
         <v>23.244247570953245</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -1797,15 +1809,15 @@
         <v>22.145649406109598</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -1815,15 +1827,15 @@
         <v>21.226261564814529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -1833,15 +1845,15 @@
         <v>20.456850118690816</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -1851,15 +1863,15 @@
         <v>19.812949963787432</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -1869,15 +1881,15 @@
         <v>19.274086899592856</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>45</v>
@@ -1887,15 +1899,15 @@
         <v>18.823126607470023</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -1905,15 +1917,15 @@
         <v>18.445729827871716</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -1923,15 +1935,15 @@
         <v>18.129896412515535</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>60</v>
@@ -1941,15 +1953,15 @@
         <v>17.865583753669529</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>65</v>
@@ -1959,15 +1971,15 @@
         <v>17.644387457680835</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>70</v>
@@ -1977,15 +1989,15 @@
         <v>17.459274109070378</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -1995,15 +2007,15 @@
         <v>17.304357627848976</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>80</v>
@@ -2013,15 +2025,15 @@
         <v>17.174712108851185</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>85</v>
@@ -2031,15 +2043,15 @@
         <v>17.066215191908018</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>90</v>
@@ -2049,15 +2061,15 @@
         <v>16.975416982473774</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>95</v>
@@ -2067,15 +2079,15 @@
         <v>16.899430354754358</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -2085,15 +2097,15 @@
         <v>16.835839149287356</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>105</v>
@@ -2103,15 +2115,15 @@
         <v>16.782621345917022</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>110</v>
@@ -2121,15 +2133,15 @@
         <v>16.738084769282487</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>115</v>
@@ -2139,15 +2151,15 @@
         <v>16.700813282435863</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>120</v>
@@ -2157,15 +2169,15 @@
         <v>16.669621757699744</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>125</v>
@@ -2175,15 +2187,15 @@
         <v>16.643518392964989</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>130</v>
@@ -2193,15 +2205,15 @@
         <v>16.621673175193816</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>135</v>
@@ -2211,15 +2223,15 @@
         <v>16.60339148835692</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>140</v>
@@ -2229,15 +2241,15 @@
         <v>16.588092026611871</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>145</v>
@@ -2247,15 +2259,15 @@
         <v>16.575288310424376</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2265,15 +2277,15 @@
         <v>16.56457321789749</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33">
         <v>155</v>
@@ -2283,15 +2295,15 @@
         <v>16.555606039448779</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34">
         <v>160</v>
@@ -2301,15 +2313,15 @@
         <v>16.54810164421102</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>165</v>
@@ -2319,15 +2331,15 @@
         <v>16.541821413678456</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36">
         <v>170</v>
@@ -2337,15 +2349,15 @@
         <v>16.53656565431444</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>175</v>
@@ -2355,15 +2367,15 @@
         <v>16.532167247862759</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>180</v>
@@ -2373,15 +2385,15 @@
         <v>16.52848633746062</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>185</v>
@@ -2391,15 +2403,15 @@
         <v>16.525405880586646</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>190</v>
@@ -2409,15 +2421,15 @@
         <v>16.52282792744036</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>195</v>
@@ -2427,15 +2439,15 @@
         <v>16.520670506416032</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>200</v>
@@ -2445,15 +2457,15 @@
         <v>16.518865017637879</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>205</v>
@@ -2463,15 +2475,15 @@
         <v>16.517354051678396</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>210</v>
@@ -2481,15 +2493,15 @@
         <v>16.516089564101215</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45">
         <v>215</v>
@@ -2499,15 +2511,15 @@
         <v>16.515031347784159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <v>220</v>
@@ -2517,15 +2529,15 @@
         <v>16.514145754446666</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>225</v>
@@ -2535,15 +2547,15 @@
         <v>16.513404624729837</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48">
         <v>230</v>
@@ -2553,15 +2565,15 @@
         <v>16.512784392808577</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <v>235</v>
@@ -2571,15 +2583,15 @@
         <v>16.512265337065141</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>240</v>
@@ -2589,15 +2601,15 @@
         <v>16.51183095299757</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>245</v>
@@ -2607,15 +2619,15 @@
         <v>16.511467428423295</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52">
         <v>250</v>
@@ -2625,15 +2637,15 @@
         <v>16.511163204290852</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53">
         <v>255</v>
@@ -2643,15 +2655,15 @@
         <v>16.510908607134816</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <v>260</v>
@@ -2661,15 +2673,15 @@
         <v>16.510695541486992</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <v>265</v>
@@ -2679,15 +2691,15 @@
         <v>16.510517232463478</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>270</v>
@@ -2697,15 +2709,15 @@
         <v>16.510368010342546</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>275</v>
@@ -2715,15 +2727,15 @@
         <v>16.510243130283556</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>280</v>
@@ -2733,15 +2745,15 @@
         <v>16.510138621454452</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59">
         <v>285</v>
@@ -2751,15 +2763,15 @@
         <v>16.510051160770594</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60">
         <v>290</v>
@@ -2769,15 +2781,15 @@
         <v>16.509977967230043</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61">
         <v>295</v>
@@ -2787,15 +2799,15 @@
         <v>16.509916713485588</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <v>300</v>
@@ -2805,15 +2817,15 @@
         <v>16.509865451841716</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63">
         <v>305</v>
@@ -2823,15 +2835,15 @@
         <v>16.509822552323392</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64">
         <v>310</v>
@@ -2841,15 +2853,15 @@
         <v>16.509786650847488</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65">
         <v>315</v>
@@ -2859,15 +2871,15 @@
         <v>16.509756605848793</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66">
         <v>320</v>
@@ -2877,15 +2889,15 @@
         <v>16.509731461981474</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67">
         <v>325</v>
@@ -2895,15 +2907,15 @@
         <v>16.509710419741801</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68">
         <v>330</v>
@@ -2913,15 +2925,15 @@
         <v>16.509692810046158</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69">
         <v>335</v>
@@ -2931,15 +2943,15 @@
         <v>16.509678072956127</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70">
         <v>340</v>
@@ -2949,15 +2961,15 @@
         <v>16.509665739874006</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71">
         <v>345</v>
@@ -2967,15 +2979,15 @@
         <v>16.509655418642719</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72">
         <v>350</v>
@@ -2985,15 +2997,15 @@
         <v>16.509646781076356</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73">
         <v>355</v>
@@ -3003,15 +3015,15 @@
         <v>16.509639552524789</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74">
         <v>360</v>
@@ -3021,15 +3033,15 @@
         <v>16.509633503140549</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75">
         <v>365</v>
@@ -3039,15 +3051,15 @@
         <v>16.50962844057036</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76">
         <v>370</v>
@@ -3057,15 +3069,15 @@
         <v>16.509624203838836</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77">
         <v>375</v>
@@ -3075,15 +3087,15 @@
         <v>16.50962065822992</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78">
         <v>380</v>
@@ -3093,15 +3105,15 @@
         <v>16.509617691003292</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79">
         <v>385</v>
@@ -3111,15 +3123,15 @@
         <v>16.509615207809553</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80">
         <v>390</v>
@@ -3129,15 +3141,15 @@
         <v>16.50961312969018</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81">
         <v>395</v>
@@ -3147,15 +3159,15 @@
         <v>16.50961139056686</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82">
         <v>400</v>
@@ -3165,15 +3177,15 @@
         <v>16.509609935140404</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83">
         <v>405</v>
@@ -3183,15 +3195,15 @@
         <v>16.509608717132373</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84">
         <v>410</v>
@@ -3201,15 +3213,15 @@
         <v>16.509607697813564</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D85">
         <v>415</v>
@@ -3219,15 +3231,15 @@
         <v>16.509606844772527</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86">
         <v>420</v>
@@ -3237,15 +3249,15 @@
         <v>16.509606130884968</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D87">
         <v>425</v>
@@ -3255,15 +3267,15 @@
         <v>16.509605533451293</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D88">
         <v>430</v>
@@ -3273,15 +3285,15 @@
         <v>16.509605033474802</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89">
         <v>435</v>
@@ -3291,15 +3303,15 @@
         <v>16.509604615057658</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <v>440</v>
@@ -3309,15 +3321,15 @@
         <v>16.50960426489538</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91">
         <v>445</v>
@@ -3327,15 +3339,15 @@
         <v>16.509603971853799</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D92">
         <v>450</v>
@@ -3345,15 +3357,15 @@
         <v>16.509603726615026</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D93">
         <v>455</v>
@@ -3363,15 +3375,15 @@
         <v>16.509603521381166</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D94">
         <v>460</v>
@@ -3381,15 +3393,15 @@
         <v>16.509603349626353</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95">
         <v>465</v>
@@ -3399,15 +3411,15 @@
         <v>16.509603205889285</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D96">
         <v>470</v>
@@ -3417,15 +3429,15 @@
         <v>16.509603085599515</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D97">
         <v>475</v>
@@ -3435,15 +3447,15 @@
         <v>16.509602984932183</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D98">
         <v>480</v>
@@ -3453,15 +3465,15 @@
         <v>16.509602900686346</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D99">
         <v>485</v>
@@ -3471,15 +3483,15 @@
         <v>16.509602830183226</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D100">
         <v>490</v>
@@ -3489,15 +3501,15 @@
         <v>16.509602771181022</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101">
         <v>495</v>
@@ -3507,15 +3519,15 @@
         <v>16.509602721803631</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D102">
         <v>500</v>
@@ -3525,15 +3537,15 @@
         <v>16.509602680481002</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D103">
         <v>505</v>
@@ -3543,15 +3555,15 @@
         <v>16.509602645899179</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D104">
         <v>510</v>
@@ -3561,15 +3573,15 @@
         <v>16.50960261695856</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D105">
         <v>515</v>
@@ -3579,15 +3591,15 @@
         <v>16.509602592738922</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D106">
         <v>520</v>
@@ -3597,15 +3609,15 @@
         <v>16.509602572470143</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D107">
         <v>525</v>
@@ -3615,15 +3627,15 @@
         <v>16.50960255550774</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D108">
         <v>530</v>
@@ -3633,15 +3645,15 @@
         <v>16.509602541312351</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D109">
         <v>535</v>
@@ -3651,15 +3663,15 @@
         <v>16.509602529432605</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D110">
         <v>540</v>
@@ -3669,15 +3681,15 @@
         <v>16.509602519490755</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D111">
         <v>545</v>
@@ -3687,15 +3699,15 @@
         <v>16.509602511170684</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D112">
         <v>550</v>
@@ -3705,15 +3717,15 @@
         <v>16.509602504207834</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D113">
         <v>555</v>
@@ -3723,15 +3735,15 @@
         <v>16.509602498380815</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D114">
         <v>560</v>
@@ -3741,15 +3753,15 @@
         <v>16.509602493504332</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D115">
         <v>565</v>
@@ -3759,15 +3771,15 @@
         <v>16.509602489423333</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D116">
         <v>570</v>
@@ -3777,15 +3789,15 @@
         <v>16.509602486008053</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D117">
         <v>575</v>
@@ -3795,15 +3807,15 @@
         <v>16.509602483149891</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D118">
         <v>580</v>
@@ -3813,15 +3825,15 @@
         <v>16.509602480757977</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D119">
         <v>585</v>
@@ -3831,15 +3843,15 @@
         <v>16.509602478756243</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D120">
         <v>590</v>
@@ -3849,15 +3861,15 @@
         <v>16.509602477081046</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121">
         <v>595</v>
@@ -3867,15 +3879,15 @@
         <v>16.509602475679117</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D122">
         <v>600</v>
@@ -3885,15 +3897,15 @@
         <v>16.509602474505883</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D123">
         <v>605</v>
@@ -3903,15 +3915,15 @@
         <v>16.50960247352403</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D124">
         <v>610</v>
@@ -3921,15 +3933,15 @@
         <v>16.509602472702344</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D125">
         <v>615</v>
@@ -3939,15 +3951,15 @@
         <v>16.509602472014699</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D126">
         <v>620</v>
@@ -3957,15 +3969,15 @@
         <v>16.509602471439223</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D127">
         <v>625</v>
@@ -3975,15 +3987,15 @@
         <v>16.509602470957624</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D128">
         <v>630</v>
@@ -3993,15 +4005,15 @@
         <v>16.50960247055459</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D129">
         <v>635</v>
@@ -4011,15 +4023,15 @@
         <v>16.509602470217295</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D130">
         <v>640</v>
@@ -4029,15 +4041,15 @@
         <v>16.509602469935025</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D131">
         <v>645</v>
@@ -4047,15 +4059,15 @@
         <v>16.509602469698805</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D132">
         <v>650</v>
@@ -4065,15 +4077,15 @@
         <v>16.509602469501111</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D133">
         <v>655</v>
@@ -4083,15 +4095,15 @@
         <v>16.509602469335672</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D134">
         <v>660</v>
@@ -4101,15 +4113,15 @@
         <v>16.509602469197219</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D135">
         <v>665</v>
@@ -4119,15 +4131,15 @@
         <v>16.509602469081351</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D136">
         <v>670</v>
@@ -4137,15 +4149,15 @@
         <v>16.509602468984383</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D137">
         <v>675</v>
@@ -4155,15 +4167,15 @@
         <v>16.509602468903232</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D138">
         <v>680</v>
@@ -4173,15 +4185,15 @@
         <v>16.509602468835322</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C139" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D139">
         <v>685</v>
@@ -4191,15 +4203,15 @@
         <v>16.509602468778489</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D140">
         <v>690</v>
@@ -4209,15 +4221,15 @@
         <v>16.509602468730925</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D141">
         <v>695</v>
@@ -4227,15 +4239,15 @@
         <v>16.509602468691124</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D142">
         <v>700</v>
@@ -4245,15 +4257,15 @@
         <v>16.50960246865781</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D143">
         <v>705</v>
@@ -4263,15 +4275,15 @@
         <v>16.509602468629936</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D144">
         <v>710</v>
@@ -4281,15 +4293,15 @@
         <v>16.509602468606605</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D145">
         <v>715</v>
@@ -4299,15 +4311,15 @@
         <v>16.509602468587083</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D146">
         <v>720</v>
@@ -4317,15 +4329,15 @@
         <v>16.509602468570741</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D147">
         <v>725</v>
@@ -4335,15 +4347,15 @@
         <v>16.50960246855707</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D148">
         <v>730</v>
@@ -4353,15 +4365,15 @@
         <v>16.509602468545626</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C149" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D149">
         <v>735</v>
@@ -4371,15 +4383,15 @@
         <v>16.509602468536052</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D150">
         <v>740</v>
@@ -4389,15 +4401,15 @@
         <v>16.509602468528037</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B151" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D151">
         <v>745</v>
@@ -4407,15 +4419,15 @@
         <v>16.509602468521329</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D152">
         <v>750</v>
@@ -4425,15 +4437,15 @@
         <v>16.509602468515716</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D153">
         <v>755</v>
@@ -4443,15 +4455,15 @@
         <v>16.509602468511019</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C154" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D154">
         <v>760</v>
@@ -4461,15 +4473,15 @@
         <v>16.50960246850709</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B155" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D155">
         <v>765</v>
@@ -4479,15 +4491,15 @@
         <v>16.509602468503797</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D156">
         <v>770</v>
@@ -4497,15 +4509,15 @@
         <v>16.509602468501043</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D157">
         <v>775</v>
@@ -4515,15 +4527,15 @@
         <v>16.509602468498741</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D158">
         <v>780</v>
@@ -4533,15 +4545,15 @@
         <v>16.509602468496812</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D159">
         <v>785</v>
@@ -4551,15 +4563,15 @@
         <v>16.509602468495199</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D160">
         <v>790</v>
@@ -4569,15 +4581,15 @@
         <v>16.509602468493849</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D161">
         <v>795</v>
@@ -4587,15 +4599,15 @@
         <v>16.509602468492716</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C162" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D162">
         <v>800</v>
@@ -4605,15 +4617,15 @@
         <v>16.509602468491771</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D163">
         <v>805</v>
@@ -4623,15 +4635,15 @@
         <v>16.509602468490982</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C164" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D164">
         <v>810</v>
@@ -4641,15 +4653,15 @@
         <v>16.509602468490321</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C165" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D165">
         <v>815</v>
@@ -4659,15 +4671,15 @@
         <v>16.509602468489764</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C166" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D166">
         <v>820</v>
@@ -4677,15 +4689,15 @@
         <v>16.509602468489298</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C167" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D167">
         <v>825</v>
@@ -4695,15 +4707,15 @@
         <v>16.509602468488914</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D168">
         <v>830</v>
@@ -4713,15 +4725,15 @@
         <v>16.509602468488588</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C169" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D169">
         <v>835</v>
@@ -4731,15 +4743,15 @@
         <v>16.509602468488318</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D170">
         <v>840</v>
@@ -4749,15 +4761,15 @@
         <v>16.50960246848809</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C171" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D171">
         <v>845</v>
@@ -4767,15 +4779,15 @@
         <v>16.509602468487898</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C172" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D172">
         <v>850</v>
@@ -4785,15 +4797,15 @@
         <v>16.509602468487735</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B173" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C173" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D173">
         <v>855</v>
@@ -4803,15 +4815,15 @@
         <v>16.509602468487603</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C174" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D174">
         <v>860</v>
@@ -4821,15 +4833,15 @@
         <v>16.509602468487493</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C175" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D175">
         <v>865</v>
@@ -4839,15 +4851,15 @@
         <v>16.509602468487401</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C176" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D176">
         <v>870</v>
@@ -4857,15 +4869,15 @@
         <v>16.509602468487323</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C177" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D177">
         <v>875</v>
@@ -4875,15 +4887,15 @@
         <v>16.509602468487255</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D178">
         <v>880</v>
@@ -4893,15 +4905,15 @@
         <v>16.509602468487202</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D179">
         <v>885</v>
@@ -4911,15 +4923,15 @@
         <v>16.509602468487152</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D180">
         <v>890</v>
@@ -4929,15 +4941,15 @@
         <v>16.509602468487117</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D181">
         <v>895</v>
@@ -4947,15 +4959,15 @@
         <v>16.509602468487085</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C182" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D182">
         <v>900</v>
@@ -4965,15 +4977,15 @@
         <v>16.50960246848706</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D183">
         <v>905</v>
@@ -4983,15 +4995,15 @@
         <v>16.509602468487035</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D184">
         <v>910</v>
@@ -5001,15 +5013,15 @@
         <v>16.509602468487017</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C185" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D185">
         <v>915</v>
@@ -5019,15 +5031,15 @@
         <v>16.509602468487</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C186" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D186">
         <v>920</v>
@@ -5037,15 +5049,15 @@
         <v>16.509602468486989</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C187" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D187">
         <v>925</v>
@@ -5055,15 +5067,15 @@
         <v>16.509602468486975</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D188">
         <v>930</v>
@@ -5073,15 +5085,15 @@
         <v>16.509602468486968</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C189" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D189">
         <v>935</v>
@@ -5091,15 +5103,15 @@
         <v>16.50960246848696</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C190" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D190">
         <v>940</v>
@@ -5109,15 +5121,15 @@
         <v>16.509602468486953</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C191" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D191">
         <v>945</v>
@@ -5127,15 +5139,15 @@
         <v>16.509602468486946</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D192">
         <v>950</v>
@@ -5145,15 +5157,15 @@
         <v>16.509602468486943</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C193" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D193">
         <v>955</v>
@@ -5163,15 +5175,15 @@
         <v>16.509602468486939</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B194" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C194" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D194">
         <v>960</v>
@@ -5181,15 +5193,15 @@
         <v>16.509602468486939</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B195" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C195" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D195">
         <v>965</v>
@@ -5199,15 +5211,15 @@
         <v>16.509602468486932</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B196" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C196" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D196">
         <v>970</v>
@@ -5217,15 +5229,15 @@
         <v>16.509602468486932</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B197" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C197" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D197">
         <v>975</v>
@@ -5235,15 +5247,15 @@
         <v>16.509602468486928</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B198" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C198" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D198">
         <v>980</v>
@@ -5253,15 +5265,15 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C199" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D199">
         <v>985</v>
@@ -5271,15 +5283,15 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B200" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C200" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D200">
         <v>990</v>
@@ -5289,15 +5301,15 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C201" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D201">
         <v>995</v>
@@ -5307,15 +5319,15 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C202" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D202">
         <v>1000</v>
@@ -5325,15 +5337,15 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B203" t="s">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5343,15 +5355,15 @@
         <v>1.3846153846153846</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D204">
         <v>5</v>
@@ -5361,15 +5373,15 @@
         <v>1.158748112114911</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B205" t="s">
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D205">
         <v>10</v>
@@ -5379,15 +5391,15 @@
         <v>0.96972574640490661</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B206" t="s">
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D206">
         <v>15</v>
@@ -5397,15 +5409,15 @@
         <v>0.81153791182815627</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B207" t="s">
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D207">
         <v>20</v>
@@ -5415,15 +5427,15 @@
         <v>0.67915468345151075</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B208" t="s">
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D208">
         <v>25</v>
@@ -5433,15 +5445,15 @@
         <v>0.56836664970470541</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B209" t="s">
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D209">
         <v>30</v>
@@ -5451,15 +5463,15 @@
         <v>0.47565106501929211</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B210" t="s">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D210">
         <v>35</v>
@@ -5469,15 +5481,15 @@
         <v>0.39805983650084281</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B211" t="s">
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D211">
         <v>40</v>
@@ -5487,15 +5499,15 @@
         <v>0.3331257829279769</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B212" t="s">
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D212">
         <v>45</v>
@@ -5505,15 +5517,15 @@
         <v>0.27878418537998517</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B213" t="s">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D213">
         <v>50</v>
@@ -5523,15 +5535,15 @@
         <v>0.23330713502528702</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B214" t="s">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D214">
         <v>55</v>
@@ -5541,15 +5553,15 @@
         <v>0.19524859051640944</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B215" t="s">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D215">
         <v>60</v>
@@ -5559,15 +5571,15 @@
         <v>0.16339839797232381</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B216" t="s">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D216">
         <v>65</v>
@@ -5577,15 +5589,15 @@
         <v>0.1367438115138559</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B217" t="s">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D217">
         <v>70</v>
@@ -5595,15 +5607,15 @@
         <v>0.11443729081422278</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B218" t="s">
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D218">
         <v>75</v>
@@ -5613,15 +5625,15 @@
         <v>9.5769551718046367E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B219" t="s">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D219">
         <v>80</v>
@@ -5631,15 +5643,15 @@
         <v>8.0147013014883778E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B220" t="s">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D220">
         <v>85</v>
@@ -5649,15 +5661,15 @@
         <v>6.707292223857754E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B221" t="s">
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D221">
         <v>90</v>
@@ -5667,15 +5679,15 @@
         <v>5.6131560346320296E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B222" t="s">
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D222">
         <v>95</v>
@@ -5685,15 +5697,15 @@
         <v>4.6975023030984303E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B223" t="s">
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D223">
         <v>100</v>
@@ -5703,15 +5715,15 @@
         <v>3.9312158349899873E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B224" t="s">
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D224">
         <v>105</v>
@@ -5721,15 +5733,15 @@
         <v>3.2899308918023111E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B225" t="s">
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D225">
         <v>110</v>
@@ -5739,15 +5751,15 @@
         <v>2.7532564293465501E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B226" t="s">
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D226">
         <v>115</v>
@@ -5757,15 +5769,15 @@
         <v>2.3041277203197902E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B227" t="s">
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D227">
         <v>120</v>
@@ -5775,15 +5787,15 @@
         <v>1.9282637443276941E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B228" t="s">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D228">
         <v>125</v>
@@ -5793,15 +5805,15 @@
         <v>1.6137130918995272E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B229" t="s">
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D229">
         <v>130</v>
@@ -5811,15 +5823,15 @@
         <v>1.3504739435298899E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B230" t="s">
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D230">
         <v>135</v>
@@ -5829,15 +5841,15 @@
         <v>1.1301760401574054E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B231" t="s">
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D231">
         <v>140</v>
@@ -5847,15 +5859,15 @@
         <v>9.4581453264270549E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B232" t="s">
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D232">
         <v>145</v>
@@ -5865,15 +5877,15 @@
         <v>7.9152724741319812E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B233" t="s">
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D233">
         <v>150</v>
@@ -5883,15 +5895,15 @@
         <v>6.6240828595323488E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B234" t="s">
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D234">
         <v>155</v>
@@ -5901,15 +5913,15 @@
         <v>5.5435203113158877E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B235" t="s">
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D235">
         <v>160</v>
@@ -5919,15 +5931,15 @@
         <v>4.6392260020946315E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B236" t="s">
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D236">
         <v>165</v>
@@ -5937,15 +5949,15 @@
         <v>3.8824459350455731E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B237" t="s">
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D237">
         <v>170</v>
@@ -5955,15 +5967,15 @@
         <v>3.2491166482827511E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B238" t="s">
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D238">
         <v>175</v>
@@ -5973,15 +5985,15 @@
         <v>2.71910006495022E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B239" t="s">
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D239">
         <v>180</v>
@@ -5991,15 +6003,15 @@
         <v>2.2755431594368761E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B240" t="s">
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D240">
         <v>185</v>
@@ -6009,15 +6021,15 @@
         <v>1.9043420789130697E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D241">
         <v>190</v>
@@ -6027,15 +6039,15 @@
         <v>1.5936936807721986E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D242">
         <v>195</v>
@@ -6045,15 +6057,15 @@
         <v>1.3337202261386241E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B243" t="s">
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D243">
         <v>200</v>
@@ -6063,15 +6075,15 @@
         <v>1.1161552957588239E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B244" t="s">
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D244">
         <v>205</v>
@@ -6081,15 +6093,15 @@
         <v>9.3408094129104262E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B245" t="s">
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D245">
         <v>210</v>
@@ -6099,15 +6111,15 @@
         <v>7.8170771414920546E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B246" t="s">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D246">
         <v>215</v>
@@ -6117,15 +6129,15 @@
         <v>6.54190577441595E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B247" t="s">
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D247">
         <v>220</v>
@@ -6135,15 +6147,15 @@
         <v>5.4747484752553049E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B248" t="s">
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D248">
         <v>225</v>
@@ -6153,15 +6165,15 @@
         <v>4.5816726655599461E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B249" t="s">
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D249">
         <v>230</v>
@@ -6171,15 +6183,15 @@
         <v>3.8342810650054965E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B250" t="s">
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D250">
         <v>235</v>
@@ -6189,15 +6201,15 @@
         <v>3.2088087383394406E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B251" t="s">
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D251">
         <v>240</v>
@@ -6207,15 +6219,15 @@
         <v>2.6853674377751418E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B252" t="s">
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D252">
         <v>245</v>
@@ -6225,15 +6237,15 @@
         <v>2.2473132130632463E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B253" t="s">
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D253">
         <v>250</v>
@@ -6243,15 +6255,15 @@
         <v>1.8807171810323952E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B254" t="s">
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D254">
         <v>255</v>
@@ -6261,15 +6273,15 @@
         <v>1.573922626570209E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B255" t="s">
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D255">
         <v>260</v>
@@ -6279,15 +6291,15 @@
         <v>1.3171743521106247E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B256" t="s">
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D256">
         <v>265</v>
@@ -6297,15 +6309,15 @@
         <v>1.102308489991488E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B257" t="s">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D257">
         <v>270</v>
@@ -6315,15 +6327,15 @@
         <v>9.2249291459424159E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B258" t="s">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D258">
         <v>275</v>
@@ -6333,15 +6345,15 @@
         <v>7.7201000010727647E-5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B259" t="s">
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D259">
         <v>280</v>
@@ -6351,15 +6363,15 @@
         <v>6.4607481622532288E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B260" t="s">
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D260">
         <v>285</v>
@@ -6369,15 +6381,15 @@
         <v>5.4068298092328089E-5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B261" t="s">
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D261">
         <v>290</v>
@@ -6387,15 +6399,15 @@
         <v>4.5248333245376035E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B262" t="s">
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D262">
         <v>295</v>
@@ -6405,15 +6417,15 @@
         <v>3.7867137189863123E-5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B263" t="s">
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D263">
         <v>300</v>
@@ -6423,15 +6435,15 @@
         <v>3.1690008804964065E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B264" t="s">
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D264">
         <v>305</v>
@@ -6441,15 +6453,15 @@
         <v>2.6520532910196749E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B265" t="s">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D265">
         <v>310</v>
@@ -6459,15 +6471,15 @@
         <v>2.2194334819201862E-5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B266" t="s">
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D266">
         <v>315</v>
@@ -6477,15 +6489,15 @@
         <v>1.8573853690452954E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B267" t="s">
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D267">
         <v>320</v>
@@ -6495,15 +6507,15 @@
         <v>1.5543968482257902E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B268" t="s">
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D268">
         <v>325</v>
@@ -6513,15 +6525,15 @@
         <v>1.3008337429815022E-5</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B269" t="s">
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D269">
         <v>330</v>
@@ -6531,15 +6543,15 @@
         <v>1.0886334650065257E-5</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B270" t="s">
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D270">
         <v>335</v>
@@ -6549,15 +6561,15 @@
         <v>9.110486467054745E-6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B271" t="s">
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D271">
         <v>340</v>
@@ -6567,15 +6579,15 @@
         <v>7.6243259402180979E-6</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B272" t="s">
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D272">
         <v>345</v>
@@ -6585,15 +6597,15 @@
         <v>6.3805973756607838E-6</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B273" t="s">
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D273">
         <v>350</v>
@@ -6603,15 +6615,15 @@
         <v>5.3397537289866536E-6</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B274" t="s">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D274">
         <v>355</v>
@@ -6621,15 +6633,15 @@
         <v>4.4686991213379905E-6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B275" t="s">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D275">
         <v>360</v>
@@ -6639,15 +6651,15 @@
         <v>3.7397364842210821E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B276" t="s">
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D276">
         <v>365</v>
@@ -6657,15 +6669,15 @@
         <v>3.1296868712044257E-6</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B277" t="s">
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D277">
         <v>370</v>
@@ -6675,15 +6687,15 @@
         <v>2.6191524330970208E-6</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B278" t="s">
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D278">
         <v>375</v>
@@ -6693,15 +6705,15 @@
         <v>2.1918996213055861E-6</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B279" t="s">
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D279">
         <v>380</v>
@@ -6711,15 +6723,15 @@
         <v>1.8343430069851155E-6</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B280" t="s">
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D280">
         <v>385</v>
@@ -6729,15 +6741,15 @@
         <v>1.5351133028943058E-6</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B281" t="s">
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D281">
         <v>390</v>
@@ -6747,15 +6759,15 @@
         <v>1.2846958522748011E-6</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B282" t="s">
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D282">
         <v>395</v>
@@ -6765,15 +6777,15 @@
         <v>1.0751280897249247E-6</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B283" t="s">
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D283">
         <v>400</v>
@@ -6783,15 +6795,15 @@
         <v>8.9974635418089326E-7</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B284" t="s">
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D284">
         <v>405</v>
@@ -6801,15 +6813,15 @@
         <v>7.5297400337566659E-7</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B285" t="s">
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D285">
         <v>410</v>
@@ -6819,15 +6831,15 @@
         <v>6.3014409241561585E-7</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B286" t="s">
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D286">
         <v>415</v>
@@ -6837,15 +6849,15 @@
         <v>5.2735097815613726E-7</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B287" t="s">
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D287">
         <v>420</v>
@@ -6855,15 +6867,15 @@
         <v>4.4132613081582713E-7</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B288" t="s">
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D288">
         <v>425</v>
@@ -6873,15 +6885,15 @@
         <v>3.6933420399042418E-7</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B289" t="s">
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D289">
         <v>430</v>
@@ -6891,15 +6903,15 @@
         <v>3.0908605838743209E-7</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B290" t="s">
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D290">
         <v>435</v>
@@ -6909,15 +6921,15 @@
         <v>2.5866597368262129E-7</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B291" t="s">
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D291">
         <v>440</v>
@@ -6927,15 +6939,15 @@
         <v>2.164707340416854E-7</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B292" t="s">
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D292">
         <v>445</v>
@@ -6945,15 +6957,15 @@
         <v>1.8115865039922869E-7</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B293" t="s">
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D293">
         <v>450</v>
@@ -6963,15 +6975,15 @@
         <v>1.5160689854800524E-7</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B294" t="s">
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D294">
         <v>455</v>
@@ -6981,15 +6993,15 @@
         <v>1.2687581651051499E-7</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B295" t="s">
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D295">
         <v>460</v>
@@ -6999,15 +7011,15 @@
         <v>1.0617902595054221E-7</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B296" t="s">
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D296">
         <v>465</v>
@@ -7017,15 +7029,15 @@
         <v>8.8858427570171402E-8</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B297" t="s">
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D297">
         <v>470</v>
@@ -7035,15 +7047,15 @@
         <v>7.4363275416758984E-8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B298" t="s">
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D298">
         <v>475</v>
@@ -7053,15 +7065,15 @@
         <v>6.2232664722114498E-8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B299" t="s">
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D299">
         <v>480</v>
@@ -7071,15 +7083,15 @@
         <v>5.2080876436788542E-8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B300" t="s">
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D300">
         <v>485</v>
@@ -7089,15 +7101,15 @@
         <v>4.3585112457191366E-8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B301" t="s">
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D301">
         <v>490</v>
@@ -7107,15 +7119,15 @@
         <v>3.6475231560506919E-8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B302" t="s">
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D302">
         <v>495</v>
@@ -7125,15 +7137,15 @@
         <v>3.0525159679221795E-8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B303" t="s">
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D303">
         <v>500</v>
@@ -7143,15 +7155,15 @@
         <v>2.554570138633096E-8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B304" t="s">
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D304">
         <v>505</v>
@@ -7161,15 +7173,15 @@
         <v>2.1378524016822716E-8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B305" t="s">
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D305">
         <v>510</v>
@@ -7179,15 +7191,15 @@
         <v>1.7891123137547587E-8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B306" t="s">
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D306">
         <v>515</v>
@@ -7197,15 +7209,15 @@
         <v>1.4972609281679575E-8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B307" t="s">
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D307">
         <v>520</v>
@@ -7215,15 +7227,15 @@
         <v>1.253018197786365E-8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B308" t="s">
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D308">
         <v>525</v>
@@ -7233,15 +7245,15 @@
         <v>1.0486178958165271E-8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B309" t="s">
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D309">
         <v>530</v>
@@ -7251,15 +7263,15 @@
         <v>8.775606717997267E-9</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B310" t="s">
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D310">
         <v>535</v>
@@ -7269,15 +7281,15 @@
         <v>7.3440739068249612E-9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B311" t="s">
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D311">
         <v>540</v>
@@ -7287,15 +7299,15 @@
         <v>6.1460618373308479E-9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B312" t="s">
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D312">
         <v>545</v>
@@ -7305,15 +7317,15 @@
         <v>5.1434771201295709E-9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B313" t="s">
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D313">
         <v>550</v>
@@ -7323,15 +7335,15 @@
         <v>4.3044404019184897E-9</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B314" t="s">
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D314">
         <v>555</v>
@@ -7341,15 +7353,15 @@
         <v>3.6022726923691512E-9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B315" t="s">
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D315">
         <v>560</v>
@@ -7359,15 +7371,15 @@
         <v>3.0146470478264444E-9</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B316" t="s">
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D316">
         <v>565</v>
@@ -7377,15 +7389,15 @@
         <v>2.5228786377612204E-9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B317" t="s">
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D317">
         <v>570</v>
@@ -7395,15 +7407,15 @@
         <v>2.1113306201006127E-9</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B318" t="s">
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D318">
         <v>575</v>
@@ -7413,15 +7425,15 @@
         <v>1.7669169339553292E-9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B319" t="s">
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D319">
         <v>580</v>
@@ -7431,15 +7443,15 @@
         <v>1.4786861999611014E-9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B320" t="s">
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D320">
         <v>585</v>
@@ -7449,15 +7461,15 @@
         <v>1.2374734974443804E-9</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B321" t="s">
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D321">
         <v>590</v>
@@ -7467,15 +7479,15 @@
         <v>1.0356089459126053E-9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B322" t="s">
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D322">
         <v>595</v>
@@ -7485,15 +7497,15 @@
         <v>8.6667382458622518E-10</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B323" t="s">
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D323">
         <v>600</v>
@@ -7503,15 +7515,15 @@
         <v>7.2529647526461671E-10</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B324" t="s">
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D324">
         <v>605</v>
@@ -7521,15 +7533,15 @@
         <v>6.0698149881523031E-10</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B325" t="s">
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D325">
         <v>610</v>
@@ -7539,15 +7551,15 @@
         <v>5.0796681421837639E-10</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B326" t="s">
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D326">
         <v>615</v>
@@ -7557,15 +7569,15 @@
         <v>4.2510403505018835E-10</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B327" t="s">
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D327">
         <v>620</v>
@@ -7575,15 +7587,15 @@
         <v>3.5575835971493713E-10</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B328" t="s">
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D328">
         <v>625</v>
@@ -7593,15 +7605,15 @@
         <v>2.9772479221967571E-10</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B329" t="s">
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D329">
         <v>630</v>
@@ -7611,15 +7623,15 @@
         <v>2.4915802954925482E-10</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B330" t="s">
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D330">
         <v>635</v>
@@ -7629,15 +7641,15 @@
         <v>2.0851378625889563E-10</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B331" t="s">
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D331">
         <v>640</v>
@@ -7647,15 +7659,15 @@
         <v>1.7449969057258619E-10</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B332" t="s">
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D332">
         <v>645</v>
@@ -7665,15 +7677,15 @@
         <v>1.4603419062239281E-10</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B333" t="s">
         <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D333">
         <v>650</v>
@@ -7683,15 +7695,15 @@
         <v>1.2221216416350245E-10</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B334" t="s">
         <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D334">
         <v>655</v>
@@ -7701,15 +7713,15 @@
         <v>1.0227613825139849E-10</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B335" t="s">
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D335">
         <v>660</v>
@@ -7719,15 +7731,15 @@
         <v>8.5592203748430508E-11</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B336" t="s">
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D336">
         <v>665</v>
@@ -7737,15 +7749,15 @@
         <v>7.1629858809346157E-11</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B337" t="s">
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D337">
         <v>670</v>
@@ -7755,15 +7767,15 @@
         <v>5.9945140425724422E-11</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B338" t="s">
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D338">
         <v>675</v>
@@ -7773,15 +7785,15 @@
         <v>5.0166507660223724E-11</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B339" t="s">
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D339">
         <v>680</v>
@@ -7791,15 +7803,15 @@
         <v>4.1983027697492977E-11</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B340" t="s">
         <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D340">
         <v>685</v>
@@ -7809,15 +7821,15 @@
         <v>3.5134489061632962E-11</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B341" t="s">
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D341">
         <v>690</v>
@@ -7827,15 +7839,15 @@
         <v>2.9403127628542247E-11</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B342" t="s">
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D342">
         <v>695</v>
@@ -7845,15 +7857,15 @@
         <v>2.460670234377843E-11</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B343" t="s">
         <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D343">
         <v>700</v>
@@ -7863,15 +7875,15 @@
         <v>2.0592700473386076E-11</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B344" t="s">
         <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D344">
         <v>705</v>
@@ -7881,15 +7893,15 @@
         <v>1.7233488131082829E-11</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B345" t="s">
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D345">
         <v>710</v>
@@ -7899,15 +7911,15 @@
         <v>1.4422251882311668E-11</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B346" t="s">
         <v>1</v>
       </c>
       <c r="C346" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D346">
         <v>715</v>
@@ -7917,15 +7929,15 @@
         <v>1.2069602379664847E-11</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B347" t="s">
         <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D347">
         <v>720</v>
@@ -7935,15 +7947,15 @@
         <v>1.0100732034910299E-11</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B348" t="s">
         <v>1</v>
       </c>
       <c r="C348" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D348">
         <v>725</v>
@@ -7953,15 +7965,15 @@
         <v>8.4530363496445664E-12</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B349" t="s">
         <v>1</v>
       </c>
       <c r="C349" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D349">
         <v>730</v>
@@ -7971,15 +7983,15 @@
         <v>7.0741232696256388E-12</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B350" t="s">
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D350">
         <v>735</v>
@@ -7989,15 +8001,15 @@
         <v>5.920147265894975E-12</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B351" t="s">
         <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D351">
         <v>740</v>
@@ -8007,15 +8019,15 @@
         <v>4.9544151711874767E-12</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B352" t="s">
         <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D352">
         <v>745</v>
@@ -8025,15 +8037,15 @@
         <v>4.1462194411783564E-12</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B353" t="s">
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D353">
         <v>750</v>
@@ -8043,15 +8055,15 @@
         <v>3.4698617415796912E-12</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B354" t="s">
         <v>1</v>
       </c>
       <c r="C354" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D354">
         <v>755</v>
@@ -8061,15 +8073,15 @@
         <v>2.9038358139232134E-12</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B355" t="s">
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D355">
         <v>760</v>
@@ -8079,15 +8091,15 @@
         <v>2.4301436374765308E-12</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B356" t="s">
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D356">
         <v>765</v>
@@ -8097,15 +8109,15 @@
         <v>2.0337231431789921E-12</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B357" t="s">
         <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D357">
         <v>770</v>
@@ -8115,15 +8127,15 @@
         <v>1.7019692825222135E-12</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B358" t="s">
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D358">
         <v>775</v>
@@ -8133,15 +8145,15 @@
         <v>1.4243332227223534E-12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B359" t="s">
         <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D359">
         <v>780</v>
@@ -8151,15 +8163,15 @@
         <v>1.1919869237265004E-12</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B360" t="s">
         <v>1</v>
       </c>
       <c r="C360" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D360">
         <v>785</v>
@@ -8169,15 +8181,15 @@
         <v>9.9754243155214609E-13</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B361" t="s">
         <v>1</v>
       </c>
       <c r="C361" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D361">
         <v>790</v>
@@ -8187,15 +8199,15 @@
         <v>8.348169622834641E-13</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B362" t="s">
         <v>1</v>
       </c>
       <c r="C362" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D362">
         <v>795</v>
@@ -8205,15 +8217,15 @@
         <v>6.9863630706095116E-13</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B363" t="s">
         <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D363">
         <v>800</v>
@@ -8223,15 +8235,15 @@
         <v>5.8467030690019582E-13</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B364" t="s">
         <v>1</v>
       </c>
       <c r="C364" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D364">
         <v>805</v>
@@ -8241,15 +8253,15 @@
         <v>4.8929516590517975E-13</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B365" t="s">
         <v>1</v>
       </c>
       <c r="C365" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D365">
         <v>810</v>
@@ -8259,15 +8271,15 @@
         <v>4.0947822482636222E-13</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B366" t="s">
         <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D366">
         <v>815</v>
@@ -8277,15 +8289,15 @@
         <v>3.4268153108923735E-13</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B367" t="s">
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D367">
         <v>820</v>
@@ -8295,15 +8307,15 @@
         <v>2.8678113909343912E-13</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B368" t="s">
         <v>1</v>
       </c>
       <c r="C368" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D368">
         <v>825</v>
@@ -8313,15 +8325,15 @@
         <v>2.3999957476060729E-13</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B369" t="s">
         <v>1</v>
       </c>
       <c r="C369" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D369">
         <v>830</v>
@@ -8331,15 +8343,15 @@
         <v>2.0084931689494737E-13</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B370" t="s">
         <v>1</v>
       </c>
       <c r="C370" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D370">
         <v>835</v>
@@ -8349,15 +8361,15 @@
         <v>1.6808549822392566E-13</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B371" t="s">
         <v>1</v>
       </c>
       <c r="C371" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D371">
         <v>840</v>
@@ -8367,15 +8379,15 @@
         <v>1.4066632214618283E-13</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B372" t="s">
         <v>1</v>
       </c>
       <c r="C372" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D372">
         <v>845</v>
@@ -8385,15 +8397,15 @@
         <v>1.1771993655141563E-13</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B373" t="s">
         <v>1</v>
       </c>
       <c r="C373" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D373">
         <v>850</v>
@@ -8403,15 +8415,15 @@
         <v>9.8516711393562389E-14</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B374" t="s">
         <v>1</v>
       </c>
       <c r="C374" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D374">
         <v>855</v>
@@ -8421,15 +8433,15 @@
         <v>8.2446038522654313E-14</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B375" t="s">
         <v>1</v>
       </c>
       <c r="C375" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D375">
         <v>860</v>
@@ -8439,15 +8451,15 @@
         <v>6.8996916075734922E-14</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B376" t="s">
         <v>1</v>
       </c>
       <c r="C376" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D376">
         <v>865</v>
@@ -8457,15 +8469,15 @@
         <v>5.7741700065478496E-14</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B377" t="s">
         <v>1</v>
       </c>
       <c r="C377" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D377">
         <v>870</v>
@@ -8475,15 +8487,15 @@
         <v>4.8322506513073397E-14</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B378" t="s">
         <v>1</v>
       </c>
       <c r="C378" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D378">
         <v>875</v>
@@ -8493,15 +8505,15 @@
         <v>4.0439831751716514E-14</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B379" t="s">
         <v>1</v>
       </c>
       <c r="C379" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D379">
         <v>880</v>
@@ -8511,15 +8523,15 @@
         <v>3.384302905861662E-14</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B380" t="s">
         <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D380">
         <v>885</v>
@@ -8529,15 +8541,15 @@
         <v>2.8322338799388233E-14</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B381" t="s">
         <v>1</v>
       </c>
       <c r="C381" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D381">
         <v>890</v>
@@ -8547,15 +8559,15 @@
         <v>2.3702218666006078E-14</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B382" t="s">
         <v>1</v>
       </c>
       <c r="C382" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D382">
         <v>895</v>
@@ -8565,15 +8577,15 @@
         <v>1.9835761928789024E-14</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B383" t="s">
         <v>1</v>
       </c>
       <c r="C383" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D383">
         <v>900</v>
@@ -8583,15 +8595,15 @@
         <v>1.6600026218638166E-14</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B384" t="s">
         <v>1</v>
       </c>
       <c r="C384" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D384">
         <v>905</v>
@@ -8601,15 +8613,15 @@
         <v>1.389212430804248E-14</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B385" t="s">
         <v>1</v>
       </c>
       <c r="C385" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D385">
         <v>910</v>
@@ -8619,15 +8631,15 @@
         <v>1.1625952588762679E-14</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B386" t="s">
         <v>1</v>
       </c>
       <c r="C386" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D386">
         <v>915</v>
@@ -8637,15 +8649,15 @@
         <v>9.7294532210533665E-15</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B387" t="s">
         <v>1</v>
       </c>
       <c r="C387" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D387">
         <v>920</v>
@@ -8655,15 +8667,15 @@
         <v>8.1423228985264919E-15</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B388" t="s">
         <v>1</v>
       </c>
       <c r="C388" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D388">
         <v>925</v>
@@ -8673,15 +8685,15 @@
         <v>6.8140953738705153E-15</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B389" t="s">
         <v>1</v>
       </c>
       <c r="C389" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D389">
         <v>930</v>
@@ -8691,15 +8703,15 @@
         <v>5.702536775175787E-15</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B390" t="s">
         <v>1</v>
       </c>
       <c r="C390" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D390">
         <v>935</v>
@@ -8709,15 +8721,15 @@
         <v>4.7723026884727907E-15</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B391" t="s">
         <v>1</v>
       </c>
       <c r="C391" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D391">
         <v>940</v>
@@ -8727,15 +8739,15 @@
         <v>3.993814305511877E-15</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B392" t="s">
         <v>1</v>
       </c>
       <c r="C392" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D392">
         <v>945</v>
@@ -8745,15 +8757,15 @@
         <v>3.3423179014690387E-15</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B393" t="s">
         <v>1</v>
       </c>
       <c r="C393" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D393">
         <v>950</v>
@@ -8763,15 +8775,15 @@
         <v>2.7970977366331382E-15</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B394" t="s">
         <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D394">
         <v>955</v>
@@ -8781,15 +8793,15 @@
         <v>2.3408173545788308E-15</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B395" t="s">
         <v>1</v>
       </c>
       <c r="C395" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D395">
         <v>960</v>
@@ -8799,15 +8811,15 @@
         <v>1.958968331972915E-15</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B396" t="s">
         <v>1</v>
       </c>
       <c r="C396" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D396">
         <v>965</v>
@@ -8817,15 +8829,15 @@
         <v>1.6394089518202564E-15</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B397" t="s">
         <v>1</v>
       </c>
       <c r="C397" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D397">
         <v>970</v>
@@ -8835,15 +8847,15 @@
         <v>1.3719781312654573E-15</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B398" t="s">
         <v>1</v>
       </c>
       <c r="C398" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D398">
         <v>975</v>
@@ -8853,15 +8865,15 @@
         <v>1.1481723279482373E-15</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B399" t="s">
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D399">
         <v>980</v>
@@ -8871,15 +8883,15 @@
         <v>9.6087515145021155E-16</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B400" t="s">
         <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D400">
         <v>985</v>
@@ -8889,15 +8901,15 @@
         <v>8.0413108224298795E-16</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B401" t="s">
         <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D401">
         <v>990</v>
@@ -8907,15 +8919,15 @@
         <v>6.7295610304143567E-16</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B402" t="s">
         <v>1</v>
       </c>
       <c r="C402" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D402">
         <v>995</v>
@@ -8925,15 +8937,15 @@
         <v>5.6317922117561708E-16</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B403" t="s">
         <v>1</v>
       </c>
       <c r="C403" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D403">
         <v>1000</v>
@@ -8956,53 +8968,53 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.62890625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9010,24 +9022,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="17">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -9036,20 +9048,20 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="15"/>
     </row>
   </sheetData>

--- a/examples/analytical/SulfateRedcution/model_config.SulfateReduction.xlsx
+++ b/examples/analytical/SulfateRedcution/model_config.SulfateReduction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16044" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16046" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>bioirrigation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -756,18 +759,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="1"/>
+    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -790,7 +793,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -810,7 +813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -842,17 +845,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -872,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -889,7 +892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
@@ -906,18 +909,18 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -943,11 +946,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
     </row>
@@ -958,23 +961,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.89453125" customWidth="1"/>
-    <col min="4" max="4" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.05078125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -993,104 +996,107 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D12" s="3"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D30" s="5"/>
     </row>
   </sheetData>
@@ -1101,28 +1107,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1134,24 +1146,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H1:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.20703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.05078125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.3671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.20703125" style="3"/>
+    <col min="3" max="3" width="7.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.23046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1193,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1211,7 +1223,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1241,7 +1253,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1271,7 +1283,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1301,7 +1313,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1331,7 +1343,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1361,7 +1373,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1385,7 +1397,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1439,7 +1451,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1469,7 +1481,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1499,7 +1511,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1529,7 +1541,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1559,7 +1571,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1589,7 +1601,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1619,7 +1631,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1650,7 +1662,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1694,12 +1706,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="9.20703125" style="18"/>
+    <col min="5" max="5" width="9.23046875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>26.125613235830144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>24.556988368240425</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>23.244247570953245</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>22.145649406109598</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>21.226261564814529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>20.456850118690816</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1863,7 +1875,7 @@
         <v>19.812949963787432</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>19.274086899592856</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>18.823126607470023</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>18.445729827871716</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>18.129896412515535</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>17.865583753669529</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>17.644387457680835</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>17.459274109070378</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>17.304357627848976</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>17.174712108851185</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>17.066215191908018</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>16.975416982473774</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>16.899430354754358</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>16.835839149287356</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -2115,7 +2127,7 @@
         <v>16.782621345917022</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>16.738084769282487</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>16.700813282435863</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>16.669621757699744</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>16.643518392964989</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>16.621673175193816</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2223,7 +2235,7 @@
         <v>16.60339148835692</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>16.588092026611871</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>16.575288310424376</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>16.56457321789749</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>16.555606039448779</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>16.54810164421102</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>16.541821413678456</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>16.53656565431444</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>16.532167247862759</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>16.52848633746062</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>16.525405880586646</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>16.52282792744036</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>16.520670506416032</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>16.518865017637879</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>16.517354051678396</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>16.516089564101215</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>16.515031347784159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>16.514145754446666</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>16.513404624729837</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>16.512784392808577</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>16.512265337065141</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>16.51183095299757</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>16.511467428423295</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>16.511163204290852</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>16.510908607134816</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>16.510695541486992</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>16.510517232463478</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -2709,7 +2721,7 @@
         <v>16.510368010342546</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>16.510243130283556</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>16.510138621454452</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>16.510051160770594</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>16.509977967230043</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>16.509916713485588</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>16.509865451841716</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -2835,7 +2847,7 @@
         <v>16.509822552323392</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -2853,7 +2865,7 @@
         <v>16.509786650847488</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>16.509756605848793</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>16.509731461981474</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>16.509710419741801</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>16.509692810046158</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>16.509678072956127</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>16.509665739874006</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>16.509655418642719</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>16.509646781076356</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>16.509639552524789</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>16.509633503140549</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>16.50962844057036</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>16.509624203838836</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>16.50962065822992</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>16.509617691003292</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -3123,7 +3135,7 @@
         <v>16.509615207809553</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>16.50961312969018</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>16.50961139056686</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>16.509609935140404</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>16.509608717132373</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>16.509607697813564</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>16.509606844772527</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3249,7 +3261,7 @@
         <v>16.509606130884968</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>16.509605533451293</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>16.509605033474802</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3303,7 +3315,7 @@
         <v>16.509604615057658</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3321,7 +3333,7 @@
         <v>16.50960426489538</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>16.509603971853799</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>16.509603726615026</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3375,7 +3387,7 @@
         <v>16.509603521381166</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>16.509603349626353</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -3411,7 +3423,7 @@
         <v>16.509603205889285</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>16.509603085599515</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -3447,7 +3459,7 @@
         <v>16.509602984932183</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>16.509602900686346</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>16.509602830183226</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -3501,7 +3513,7 @@
         <v>16.509602771181022</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -3519,7 +3531,7 @@
         <v>16.509602721803631</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>16.509602680481002</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>92</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>16.509602645899179</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>16.50960261695856</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -3591,7 +3603,7 @@
         <v>16.509602592738922</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -3609,7 +3621,7 @@
         <v>16.509602572470143</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>16.50960255550774</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>16.509602541312351</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -3663,7 +3675,7 @@
         <v>16.509602529432605</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>92</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>16.509602519490755</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>92</v>
       </c>
@@ -3699,7 +3711,7 @@
         <v>16.509602511170684</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>92</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>16.509602504207834</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -3735,7 +3747,7 @@
         <v>16.509602498380815</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>16.509602493504332</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>16.509602489423333</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -3789,7 +3801,7 @@
         <v>16.509602486008053</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>16.509602483149891</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>92</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>16.509602480757977</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>92</v>
       </c>
@@ -3843,7 +3855,7 @@
         <v>16.509602478756243</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>92</v>
       </c>
@@ -3861,7 +3873,7 @@
         <v>16.509602477081046</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -3879,7 +3891,7 @@
         <v>16.509602475679117</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>16.509602474505883</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>92</v>
       </c>
@@ -3915,7 +3927,7 @@
         <v>16.50960247352403</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>92</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>16.509602472702344</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>92</v>
       </c>
@@ -3951,7 +3963,7 @@
         <v>16.509602472014699</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>92</v>
       </c>
@@ -3969,7 +3981,7 @@
         <v>16.509602471439223</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>16.509602470957624</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>92</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>16.50960247055459</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>92</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>16.509602470217295</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>16.509602469935025</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>92</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>16.509602469698805</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>92</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>16.509602469501111</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>92</v>
       </c>
@@ -4095,7 +4107,7 @@
         <v>16.509602469335672</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>16.509602469197219</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>92</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>16.509602469081351</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>92</v>
       </c>
@@ -4149,7 +4161,7 @@
         <v>16.509602468984383</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>16.509602468903232</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -4185,7 +4197,7 @@
         <v>16.509602468835322</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>92</v>
       </c>
@@ -4203,7 +4215,7 @@
         <v>16.509602468778489</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>92</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>16.509602468730925</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -4239,7 +4251,7 @@
         <v>16.509602468691124</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>16.50960246865781</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>92</v>
       </c>
@@ -4275,7 +4287,7 @@
         <v>16.509602468629936</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>16.509602468606605</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>16.509602468587083</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>16.509602468570741</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>16.50960246855707</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>92</v>
       </c>
@@ -4365,7 +4377,7 @@
         <v>16.509602468545626</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>92</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>16.509602468536052</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -4401,7 +4413,7 @@
         <v>16.509602468528037</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>92</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>16.509602468521329</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>16.509602468515716</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>92</v>
       </c>
@@ -4455,7 +4467,7 @@
         <v>16.509602468511019</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>92</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>16.50960246850709</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>92</v>
       </c>
@@ -4491,7 +4503,7 @@
         <v>16.509602468503797</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -4509,7 +4521,7 @@
         <v>16.509602468501043</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>92</v>
       </c>
@@ -4527,7 +4539,7 @@
         <v>16.509602468498741</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>92</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>16.509602468496812</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>16.509602468495199</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>92</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>16.509602468493849</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>92</v>
       </c>
@@ -4599,7 +4611,7 @@
         <v>16.509602468492716</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>92</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>16.509602468491771</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>92</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>16.509602468490982</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>92</v>
       </c>
@@ -4653,7 +4665,7 @@
         <v>16.509602468490321</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>92</v>
       </c>
@@ -4671,7 +4683,7 @@
         <v>16.509602468489764</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>92</v>
       </c>
@@ -4689,7 +4701,7 @@
         <v>16.509602468489298</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>92</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>16.509602468488914</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>16.509602468488588</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>16.509602468488318</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>92</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>16.50960246848809</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>92</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>16.509602468487898</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>92</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>16.509602468487735</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -4815,7 +4827,7 @@
         <v>16.509602468487603</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>92</v>
       </c>
@@ -4833,7 +4845,7 @@
         <v>16.509602468487493</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>92</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>16.509602468487401</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>92</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>16.509602468487323</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>92</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>16.509602468487255</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>16.509602468487202</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -4923,7 +4935,7 @@
         <v>16.509602468487152</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>16.509602468487117</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>92</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>16.509602468487085</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>92</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>16.50960246848706</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>92</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>16.509602468487035</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>92</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>16.509602468487017</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>92</v>
       </c>
@@ -5031,7 +5043,7 @@
         <v>16.509602468487</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>16.509602468486989</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>92</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>16.509602468486975</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>92</v>
       </c>
@@ -5085,7 +5097,7 @@
         <v>16.509602468486968</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>92</v>
       </c>
@@ -5103,7 +5115,7 @@
         <v>16.50960246848696</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>92</v>
       </c>
@@ -5121,7 +5133,7 @@
         <v>16.509602468486953</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>92</v>
       </c>
@@ -5139,7 +5151,7 @@
         <v>16.509602468486946</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>92</v>
       </c>
@@ -5157,7 +5169,7 @@
         <v>16.509602468486943</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>92</v>
       </c>
@@ -5175,7 +5187,7 @@
         <v>16.509602468486939</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>92</v>
       </c>
@@ -5193,7 +5205,7 @@
         <v>16.509602468486939</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>92</v>
       </c>
@@ -5211,7 +5223,7 @@
         <v>16.509602468486932</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>92</v>
       </c>
@@ -5229,7 +5241,7 @@
         <v>16.509602468486932</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>92</v>
       </c>
@@ -5247,7 +5259,7 @@
         <v>16.509602468486928</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>92</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>92</v>
       </c>
@@ -5283,7 +5295,7 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -5301,7 +5313,7 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>92</v>
       </c>
@@ -5319,7 +5331,7 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>92</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>16.509602468486925</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>92</v>
       </c>
@@ -5355,7 +5367,7 @@
         <v>1.3846153846153846</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>92</v>
       </c>
@@ -5373,7 +5385,7 @@
         <v>1.158748112114911</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>92</v>
       </c>
@@ -5391,7 +5403,7 @@
         <v>0.96972574640490661</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>92</v>
       </c>
@@ -5409,7 +5421,7 @@
         <v>0.81153791182815627</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>92</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>0.67915468345151075</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>92</v>
       </c>
@@ -5445,7 +5457,7 @@
         <v>0.56836664970470541</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>92</v>
       </c>
@@ -5463,7 +5475,7 @@
         <v>0.47565106501929211</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>92</v>
       </c>
@@ -5481,7 +5493,7 @@
         <v>0.39805983650084281</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>92</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>0.3331257829279769</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>92</v>
       </c>
@@ -5517,7 +5529,7 @@
         <v>0.27878418537998517</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>92</v>
       </c>
@@ -5535,7 +5547,7 @@
         <v>0.23330713502528702</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -5553,7 +5565,7 @@
         <v>0.19524859051640944</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -5571,7 +5583,7 @@
         <v>0.16339839797232381</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>92</v>
       </c>
@@ -5589,7 +5601,7 @@
         <v>0.1367438115138559</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>92</v>
       </c>
@@ -5607,7 +5619,7 @@
         <v>0.11443729081422278</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>92</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>9.5769551718046367E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -5643,7 +5655,7 @@
         <v>8.0147013014883778E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>92</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>6.707292223857754E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>92</v>
       </c>
@@ -5679,7 +5691,7 @@
         <v>5.6131560346320296E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>92</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>4.6975023030984303E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>92</v>
       </c>
@@ -5715,7 +5727,7 @@
         <v>3.9312158349899873E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>92</v>
       </c>
@@ -5733,7 +5745,7 @@
         <v>3.2899308918023111E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>92</v>
       </c>
@@ -5751,7 +5763,7 @@
         <v>2.7532564293465501E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>92</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>2.3041277203197902E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>92</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>1.9282637443276941E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>92</v>
       </c>
@@ -5805,7 +5817,7 @@
         <v>1.6137130918995272E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>92</v>
       </c>
@@ -5823,7 +5835,7 @@
         <v>1.3504739435298899E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>92</v>
       </c>
@@ -5841,7 +5853,7 @@
         <v>1.1301760401574054E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>92</v>
       </c>
@@ -5859,7 +5871,7 @@
         <v>9.4581453264270549E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -5877,7 +5889,7 @@
         <v>7.9152724741319812E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>92</v>
       </c>
@@ -5895,7 +5907,7 @@
         <v>6.6240828595323488E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>92</v>
       </c>
@@ -5913,7 +5925,7 @@
         <v>5.5435203113158877E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>92</v>
       </c>
@@ -5931,7 +5943,7 @@
         <v>4.6392260020946315E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>92</v>
       </c>
@@ -5949,7 +5961,7 @@
         <v>3.8824459350455731E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>92</v>
       </c>
@@ -5967,7 +5979,7 @@
         <v>3.2491166482827511E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>92</v>
       </c>
@@ -5985,7 +5997,7 @@
         <v>2.71910006495022E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>92</v>
       </c>
@@ -6003,7 +6015,7 @@
         <v>2.2755431594368761E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>92</v>
       </c>
@@ -6021,7 +6033,7 @@
         <v>1.9043420789130697E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>92</v>
       </c>
@@ -6039,7 +6051,7 @@
         <v>1.5936936807721986E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>92</v>
       </c>
@@ -6057,7 +6069,7 @@
         <v>1.3337202261386241E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>92</v>
       </c>
@@ -6075,7 +6087,7 @@
         <v>1.1161552957588239E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>92</v>
       </c>
@@ -6093,7 +6105,7 @@
         <v>9.3408094129104262E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>92</v>
       </c>
@@ -6111,7 +6123,7 @@
         <v>7.8170771414920546E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>92</v>
       </c>
@@ -6129,7 +6141,7 @@
         <v>6.54190577441595E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>92</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>5.4747484752553049E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>92</v>
       </c>
@@ -6165,7 +6177,7 @@
         <v>4.5816726655599461E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>92</v>
       </c>
@@ -6183,7 +6195,7 @@
         <v>3.8342810650054965E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>92</v>
       </c>
@@ -6201,7 +6213,7 @@
         <v>3.2088087383394406E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>92</v>
       </c>
@@ -6219,7 +6231,7 @@
         <v>2.6853674377751418E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>92</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>2.2473132130632463E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>92</v>
       </c>
@@ -6255,7 +6267,7 @@
         <v>1.8807171810323952E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>92</v>
       </c>
@@ -6273,7 +6285,7 @@
         <v>1.573922626570209E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>92</v>
       </c>
@@ -6291,7 +6303,7 @@
         <v>1.3171743521106247E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>92</v>
       </c>
@@ -6309,7 +6321,7 @@
         <v>1.102308489991488E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>92</v>
       </c>
@@ -6327,7 +6339,7 @@
         <v>9.2249291459424159E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>92</v>
       </c>
@@ -6345,7 +6357,7 @@
         <v>7.7201000010727647E-5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>92</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>6.4607481622532288E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>92</v>
       </c>
@@ -6381,7 +6393,7 @@
         <v>5.4068298092328089E-5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>92</v>
       </c>
@@ -6399,7 +6411,7 @@
         <v>4.5248333245376035E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>92</v>
       </c>
@@ -6417,7 +6429,7 @@
         <v>3.7867137189863123E-5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>92</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>3.1690008804964065E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>92</v>
       </c>
@@ -6453,7 +6465,7 @@
         <v>2.6520532910196749E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>92</v>
       </c>
@@ -6471,7 +6483,7 @@
         <v>2.2194334819201862E-5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>92</v>
       </c>
@@ -6489,7 +6501,7 @@
         <v>1.8573853690452954E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>92</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>1.5543968482257902E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>92</v>
       </c>
@@ -6525,7 +6537,7 @@
         <v>1.3008337429815022E-5</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>92</v>
       </c>
@@ -6543,7 +6555,7 @@
         <v>1.0886334650065257E-5</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>92</v>
       </c>
@@ -6561,7 +6573,7 @@
         <v>9.110486467054745E-6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>92</v>
       </c>
@@ -6579,7 +6591,7 @@
         <v>7.6243259402180979E-6</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>92</v>
       </c>
@@ -6597,7 +6609,7 @@
         <v>6.3805973756607838E-6</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>92</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>5.3397537289866536E-6</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>92</v>
       </c>
@@ -6633,7 +6645,7 @@
         <v>4.4686991213379905E-6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>92</v>
       </c>
@@ -6651,7 +6663,7 @@
         <v>3.7397364842210821E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>92</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>3.1296868712044257E-6</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>92</v>
       </c>
@@ -6687,7 +6699,7 @@
         <v>2.6191524330970208E-6</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -6705,7 +6717,7 @@
         <v>2.1918996213055861E-6</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>92</v>
       </c>
@@ -6723,7 +6735,7 @@
         <v>1.8343430069851155E-6</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>92</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>1.5351133028943058E-6</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>92</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>1.2846958522748011E-6</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>92</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>1.0751280897249247E-6</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>92</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>8.9974635418089326E-7</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>92</v>
       </c>
@@ -6813,7 +6825,7 @@
         <v>7.5297400337566659E-7</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>92</v>
       </c>
@@ -6831,7 +6843,7 @@
         <v>6.3014409241561585E-7</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>92</v>
       </c>
@@ -6849,7 +6861,7 @@
         <v>5.2735097815613726E-7</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>92</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>4.4132613081582713E-7</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>92</v>
       </c>
@@ -6885,7 +6897,7 @@
         <v>3.6933420399042418E-7</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>92</v>
       </c>
@@ -6903,7 +6915,7 @@
         <v>3.0908605838743209E-7</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>92</v>
       </c>
@@ -6921,7 +6933,7 @@
         <v>2.5866597368262129E-7</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>92</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>2.164707340416854E-7</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>92</v>
       </c>
@@ -6957,7 +6969,7 @@
         <v>1.8115865039922869E-7</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>92</v>
       </c>
@@ -6975,7 +6987,7 @@
         <v>1.5160689854800524E-7</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>92</v>
       </c>
@@ -6993,7 +7005,7 @@
         <v>1.2687581651051499E-7</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>92</v>
       </c>
@@ -7011,7 +7023,7 @@
         <v>1.0617902595054221E-7</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>92</v>
       </c>
@@ -7029,7 +7041,7 @@
         <v>8.8858427570171402E-8</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7059,7 @@
         <v>7.4363275416758984E-8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -7065,7 +7077,7 @@
         <v>6.2232664722114498E-8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>92</v>
       </c>
@@ -7083,7 +7095,7 @@
         <v>5.2080876436788542E-8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>92</v>
       </c>
@@ -7101,7 +7113,7 @@
         <v>4.3585112457191366E-8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>92</v>
       </c>
@@ -7119,7 +7131,7 @@
         <v>3.6475231560506919E-8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>92</v>
       </c>
@@ -7137,7 +7149,7 @@
         <v>3.0525159679221795E-8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>92</v>
       </c>
@@ -7155,7 +7167,7 @@
         <v>2.554570138633096E-8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>2.1378524016822716E-8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>92</v>
       </c>
@@ -7191,7 +7203,7 @@
         <v>1.7891123137547587E-8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>92</v>
       </c>
@@ -7209,7 +7221,7 @@
         <v>1.4972609281679575E-8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>92</v>
       </c>
@@ -7227,7 +7239,7 @@
         <v>1.253018197786365E-8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>92</v>
       </c>
@@ -7245,7 +7257,7 @@
         <v>1.0486178958165271E-8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>92</v>
       </c>
@@ -7263,7 +7275,7 @@
         <v>8.775606717997267E-9</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>92</v>
       </c>
@@ -7281,7 +7293,7 @@
         <v>7.3440739068249612E-9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>92</v>
       </c>
@@ -7299,7 +7311,7 @@
         <v>6.1460618373308479E-9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>92</v>
       </c>
@@ -7317,7 +7329,7 @@
         <v>5.1434771201295709E-9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>92</v>
       </c>
@@ -7335,7 +7347,7 @@
         <v>4.3044404019184897E-9</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>92</v>
       </c>
@@ -7353,7 +7365,7 @@
         <v>3.6022726923691512E-9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>92</v>
       </c>
@@ -7371,7 +7383,7 @@
         <v>3.0146470478264444E-9</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>92</v>
       </c>
@@ -7389,7 +7401,7 @@
         <v>2.5228786377612204E-9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>92</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>2.1113306201006127E-9</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>92</v>
       </c>
@@ -7425,7 +7437,7 @@
         <v>1.7669169339553292E-9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>92</v>
       </c>
@@ -7443,7 +7455,7 @@
         <v>1.4786861999611014E-9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>92</v>
       </c>
@@ -7461,7 +7473,7 @@
         <v>1.2374734974443804E-9</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>92</v>
       </c>
@@ -7479,7 +7491,7 @@
         <v>1.0356089459126053E-9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>92</v>
       </c>
@@ -7497,7 +7509,7 @@
         <v>8.6667382458622518E-10</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>92</v>
       </c>
@@ -7515,7 +7527,7 @@
         <v>7.2529647526461671E-10</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>92</v>
       </c>
@@ -7533,7 +7545,7 @@
         <v>6.0698149881523031E-10</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>92</v>
       </c>
@@ -7551,7 +7563,7 @@
         <v>5.0796681421837639E-10</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>92</v>
       </c>
@@ -7569,7 +7581,7 @@
         <v>4.2510403505018835E-10</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>92</v>
       </c>
@@ -7587,7 +7599,7 @@
         <v>3.5575835971493713E-10</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>92</v>
       </c>
@@ -7605,7 +7617,7 @@
         <v>2.9772479221967571E-10</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>92</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>2.4915802954925482E-10</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>92</v>
       </c>
@@ -7641,7 +7653,7 @@
         <v>2.0851378625889563E-10</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>92</v>
       </c>
@@ -7659,7 +7671,7 @@
         <v>1.7449969057258619E-10</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>92</v>
       </c>
@@ -7677,7 +7689,7 @@
         <v>1.4603419062239281E-10</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>92</v>
       </c>
@@ -7695,7 +7707,7 @@
         <v>1.2221216416350245E-10</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>92</v>
       </c>
@@ -7713,7 +7725,7 @@
         <v>1.0227613825139849E-10</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>92</v>
       </c>
@@ -7731,7 +7743,7 @@
         <v>8.5592203748430508E-11</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>92</v>
       </c>
@@ -7749,7 +7761,7 @@
         <v>7.1629858809346157E-11</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>92</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>5.9945140425724422E-11</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -7785,7 +7797,7 @@
         <v>5.0166507660223724E-11</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>92</v>
       </c>
@@ -7803,7 +7815,7 @@
         <v>4.1983027697492977E-11</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>92</v>
       </c>
@@ -7821,7 +7833,7 @@
         <v>3.5134489061632962E-11</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>92</v>
       </c>
@@ -7839,7 +7851,7 @@
         <v>2.9403127628542247E-11</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>92</v>
       </c>
@@ -7857,7 +7869,7 @@
         <v>2.460670234377843E-11</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>92</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>2.0592700473386076E-11</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>92</v>
       </c>
@@ -7893,7 +7905,7 @@
         <v>1.7233488131082829E-11</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>92</v>
       </c>
@@ -7911,7 +7923,7 @@
         <v>1.4422251882311668E-11</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -7929,7 +7941,7 @@
         <v>1.2069602379664847E-11</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>92</v>
       </c>
@@ -7947,7 +7959,7 @@
         <v>1.0100732034910299E-11</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>92</v>
       </c>
@@ -7965,7 +7977,7 @@
         <v>8.4530363496445664E-12</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>92</v>
       </c>
@@ -7983,7 +7995,7 @@
         <v>7.0741232696256388E-12</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>92</v>
       </c>
@@ -8001,7 +8013,7 @@
         <v>5.920147265894975E-12</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>92</v>
       </c>
@@ -8019,7 +8031,7 @@
         <v>4.9544151711874767E-12</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>92</v>
       </c>
@@ -8037,7 +8049,7 @@
         <v>4.1462194411783564E-12</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>92</v>
       </c>
@@ -8055,7 +8067,7 @@
         <v>3.4698617415796912E-12</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>92</v>
       </c>
@@ -8073,7 +8085,7 @@
         <v>2.9038358139232134E-12</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>92</v>
       </c>
@@ -8091,7 +8103,7 @@
         <v>2.4301436374765308E-12</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>92</v>
       </c>
@@ -8109,7 +8121,7 @@
         <v>2.0337231431789921E-12</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>92</v>
       </c>
@@ -8127,7 +8139,7 @@
         <v>1.7019692825222135E-12</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>92</v>
       </c>
@@ -8145,7 +8157,7 @@
         <v>1.4243332227223534E-12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>92</v>
       </c>
@@ -8163,7 +8175,7 @@
         <v>1.1919869237265004E-12</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>92</v>
       </c>
@@ -8181,7 +8193,7 @@
         <v>9.9754243155214609E-13</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>92</v>
       </c>
@@ -8199,7 +8211,7 @@
         <v>8.348169622834641E-13</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>92</v>
       </c>
@@ -8217,7 +8229,7 @@
         <v>6.9863630706095116E-13</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>92</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>5.8467030690019582E-13</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>92</v>
       </c>
@@ -8253,7 +8265,7 @@
         <v>4.8929516590517975E-13</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>92</v>
       </c>
@@ -8271,7 +8283,7 @@
         <v>4.0947822482636222E-13</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>92</v>
       </c>
@@ -8289,7 +8301,7 @@
         <v>3.4268153108923735E-13</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>92</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>2.8678113909343912E-13</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>92</v>
       </c>
@@ -8325,7 +8337,7 @@
         <v>2.3999957476060729E-13</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>92</v>
       </c>
@@ -8343,7 +8355,7 @@
         <v>2.0084931689494737E-13</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>92</v>
       </c>
@@ -8361,7 +8373,7 @@
         <v>1.6808549822392566E-13</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>92</v>
       </c>
@@ -8379,7 +8391,7 @@
         <v>1.4066632214618283E-13</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>92</v>
       </c>
@@ -8397,7 +8409,7 @@
         <v>1.1771993655141563E-13</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>92</v>
       </c>
@@ -8415,7 +8427,7 @@
         <v>9.8516711393562389E-14</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>92</v>
       </c>
@@ -8433,7 +8445,7 @@
         <v>8.2446038522654313E-14</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>92</v>
       </c>
@@ -8451,7 +8463,7 @@
         <v>6.8996916075734922E-14</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>92</v>
       </c>
@@ -8469,7 +8481,7 @@
         <v>5.7741700065478496E-14</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>92</v>
       </c>
@@ -8487,7 +8499,7 @@
         <v>4.8322506513073397E-14</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>92</v>
       </c>
@@ -8505,7 +8517,7 @@
         <v>4.0439831751716514E-14</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>92</v>
       </c>
@@ -8523,7 +8535,7 @@
         <v>3.384302905861662E-14</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>92</v>
       </c>
@@ -8541,7 +8553,7 @@
         <v>2.8322338799388233E-14</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>92</v>
       </c>
@@ -8559,7 +8571,7 @@
         <v>2.3702218666006078E-14</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>92</v>
       </c>
@@ -8577,7 +8589,7 @@
         <v>1.9835761928789024E-14</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>92</v>
       </c>
@@ -8595,7 +8607,7 @@
         <v>1.6600026218638166E-14</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>92</v>
       </c>
@@ -8613,7 +8625,7 @@
         <v>1.389212430804248E-14</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>92</v>
       </c>
@@ -8631,7 +8643,7 @@
         <v>1.1625952588762679E-14</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>92</v>
       </c>
@@ -8649,7 +8661,7 @@
         <v>9.7294532210533665E-15</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>92</v>
       </c>
@@ -8667,7 +8679,7 @@
         <v>8.1423228985264919E-15</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>92</v>
       </c>
@@ -8685,7 +8697,7 @@
         <v>6.8140953738705153E-15</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>92</v>
       </c>
@@ -8703,7 +8715,7 @@
         <v>5.702536775175787E-15</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>92</v>
       </c>
@@ -8721,7 +8733,7 @@
         <v>4.7723026884727907E-15</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>92</v>
       </c>
@@ -8739,7 +8751,7 @@
         <v>3.993814305511877E-15</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>92</v>
       </c>
@@ -8757,7 +8769,7 @@
         <v>3.3423179014690387E-15</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>92</v>
       </c>
@@ -8775,7 +8787,7 @@
         <v>2.7970977366331382E-15</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>92</v>
       </c>
@@ -8793,7 +8805,7 @@
         <v>2.3408173545788308E-15</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>92</v>
       </c>
@@ -8811,7 +8823,7 @@
         <v>1.958968331972915E-15</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>92</v>
       </c>
@@ -8829,7 +8841,7 @@
         <v>1.6394089518202564E-15</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>92</v>
       </c>
@@ -8847,7 +8859,7 @@
         <v>1.3719781312654573E-15</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>92</v>
       </c>
@@ -8865,7 +8877,7 @@
         <v>1.1481723279482373E-15</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>92</v>
       </c>
@@ -8883,7 +8895,7 @@
         <v>9.6087515145021155E-16</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>92</v>
       </c>
@@ -8901,7 +8913,7 @@
         <v>8.0413108224298795E-16</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>92</v>
       </c>
@@ -8919,7 +8931,7 @@
         <v>6.7295610304143567E-16</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>92</v>
       </c>
@@ -8937,7 +8949,7 @@
         <v>5.6317922117561708E-16</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>92</v>
       </c>
@@ -8968,21 +8980,21 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -9014,7 +9026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9028,7 +9040,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9051,17 +9063,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
     </row>
   </sheetData>
